--- a/Codigo-IMPEX.V.2/input/ItemsGenerar.xlsx
+++ b/Codigo-IMPEX.V.2/input/ItemsGenerar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcolin\Documents\DataScience-CONNECT\Codigo-IMPEX.V.2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055D1DF3-D9DF-405F-9764-7B0A6C272323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA740C-7022-47E2-9E72-62A55B8284D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87CCE148-DAA1-4A54-9FCD-E2229F9C0CB2}"/>
   </bookViews>
@@ -404,7 +404,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2115592028</v>
+        <v>2301210102</v>
       </c>
     </row>
   </sheetData>

--- a/Codigo-IMPEX.V.2/input/ItemsGenerar.xlsx
+++ b/Codigo-IMPEX.V.2/input/ItemsGenerar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcolin\Documents\DataScience-CONNECT\Codigo-IMPEX.V.2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA740C-7022-47E2-9E72-62A55B8284D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F17B42-8F0F-4E19-99A3-26F803F77E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87CCE148-DAA1-4A54-9FCD-E2229F9C0CB2}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{87CCE148-DAA1-4A54-9FCD-E2229F9C0CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>VarianteColor</t>
+  </si>
+  <si>
+    <t>2300150083</t>
+  </si>
+  <si>
+    <t>1215560051</t>
+  </si>
+  <si>
+    <t>1311919060</t>
   </si>
 </sst>
 </file>
@@ -389,13 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575F7A52-452A-4546-BD39-D460D566978A}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -403,8 +415,18 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2301210102</v>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
